--- a/ResultadoEleicoesDistritos/PORTO_GONDOMAR.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_GONDOMAR.xlsx
@@ -597,61 +597,61 @@
         <v>43764</v>
       </c>
       <c r="H2" t="n">
-        <v>1660</v>
+        <v>1623</v>
       </c>
       <c r="I2" t="n">
-        <v>4451</v>
+        <v>4436</v>
       </c>
       <c r="J2" t="n">
-        <v>17816</v>
+        <v>17832</v>
       </c>
       <c r="K2" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="L2" t="n">
-        <v>4938</v>
+        <v>4920</v>
       </c>
       <c r="M2" t="n">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="N2" t="n">
-        <v>3164</v>
+        <v>3150</v>
       </c>
       <c r="O2" t="n">
         <v>12</v>
       </c>
       <c r="P2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" t="n">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="S2" t="n">
-        <v>1907</v>
+        <v>1963</v>
       </c>
       <c r="T2" t="n">
-        <v>3192</v>
+        <v>3172</v>
       </c>
       <c r="U2" t="n">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="V2" t="n">
-        <v>28138</v>
+        <v>28171</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
-        <v>27971</v>
+        <v>27901</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="n">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="AA2" t="n">
         <v>173</v>
